--- a/data/time_series/return_data.xlsx
+++ b/data/time_series/return_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\Projects\UPS_MV-git\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C27DAD-64B2-4473-8972-344E66DBDF24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="1" r:id="rId1"/>
@@ -35,7 +34,7 @@
     <definedName name="Funded_Status_Loadings">'[1]Factor Loadings'!$B$8:$B$23</definedName>
     <definedName name="Liability_OAD">[1]Control!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -206,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
@@ -2659,9 +2658,9 @@
       <sheetName val="Factor Loadings"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="4">
           <cell r="B4">
@@ -2669,7 +2668,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2751,23 +2750,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2803,23 +2785,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2995,12 +2960,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA166"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z2" sqref="Z2:Z166"/>
+      <selection pane="topRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16807,11 +16772,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EAA628-1DC2-475D-8D8A-10CBA5008C7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16832,7 +16798,7 @@
         <v>40178</v>
       </c>
       <c r="B2" s="9">
-        <v>4.9452999999999997E-2</v>
+        <v>-2.6897000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16840,7 +16806,7 @@
         <v>40209</v>
       </c>
       <c r="B3" s="9">
-        <v>2.764044505052388E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -16856,7 +16822,7 @@
         <v>40268</v>
       </c>
       <c r="B5" s="9">
-        <v>0</v>
+        <v>1.8712000000000058E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -16864,7 +16830,7 @@
         <v>40298</v>
       </c>
       <c r="B6" s="9">
-        <v>-1.8368292510542731E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -16880,7 +16846,7 @@
         <v>40359</v>
       </c>
       <c r="B8" s="9">
-        <v>0</v>
+        <v>3.0515999999999991E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -16888,7 +16854,7 @@
         <v>40390</v>
       </c>
       <c r="B9" s="9">
-        <v>-2.9612349541394689E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -16904,7 +16870,7 @@
         <v>40451</v>
       </c>
       <c r="B11" s="9">
-        <v>0</v>
+        <v>6.1352999999999991E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -16912,7 +16878,7 @@
         <v>40482</v>
       </c>
       <c r="B12" s="9">
-        <v>-5.7806403712996501E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -16928,7 +16894,7 @@
         <v>40543</v>
       </c>
       <c r="B14" s="9">
-        <v>0</v>
+        <v>4.726600000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -16936,7 +16902,7 @@
         <v>40574</v>
       </c>
       <c r="B15" s="9">
-        <v>-4.5132755193045493E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -16952,7 +16918,7 @@
         <v>40633</v>
       </c>
       <c r="B17" s="9">
-        <v>0</v>
+        <v>4.0130999999999917E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -16960,7 +16926,7 @@
         <v>40663</v>
       </c>
       <c r="B18" s="9">
-        <v>-3.8582640071298642E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -16976,7 +16942,7 @@
         <v>40724</v>
       </c>
       <c r="B20" s="9">
-        <v>0</v>
+        <v>4.19179999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -16984,7 +16950,7 @@
         <v>40755</v>
       </c>
       <c r="B21" s="9">
-        <v>-4.0231572926084369E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -17000,7 +16966,7 @@
         <v>40816</v>
       </c>
       <c r="B23" s="9">
-        <v>0</v>
+        <v>1.0524999999999901E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -17008,7 +16974,7 @@
         <v>40847</v>
       </c>
       <c r="B24" s="9">
-        <v>-1.0415378145023579E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -17024,7 +16990,7 @@
         <v>40908</v>
       </c>
       <c r="B26" s="9">
-        <v>0</v>
+        <v>4.0113999999999983E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -17032,7 +16998,7 @@
         <v>40939</v>
       </c>
       <c r="B27" s="9">
-        <v>-3.8566926317692103E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -17048,7 +17014,7 @@
         <v>40999</v>
       </c>
       <c r="B29" s="9">
-        <v>0</v>
+        <v>3.4486999999999927E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -17056,7 +17022,7 @@
         <v>41029</v>
       </c>
       <c r="B30" s="9">
-        <v>-3.333729665041707E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -17072,7 +17038,7 @@
         <v>41090</v>
       </c>
       <c r="B32" s="9">
-        <v>0</v>
+        <v>2.5565999999999981E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -17080,7 +17046,7 @@
         <v>41121</v>
       </c>
       <c r="B33" s="9">
-        <v>-2.4928673532468859E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -17096,7 +17062,7 @@
         <v>41182</v>
       </c>
       <c r="B35" s="9">
-        <v>0</v>
+        <v>2.3706000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -17104,7 +17070,7 @@
         <v>41213</v>
       </c>
       <c r="B36" s="9">
-        <v>-2.3157039228059669E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -17120,7 +17086,7 @@
         <v>41274</v>
       </c>
       <c r="B38" s="9">
-        <v>0</v>
+        <v>2.0337000000000049E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -17128,7 +17094,7 @@
         <v>41305</v>
       </c>
       <c r="B39" s="9">
-        <v>-1.9931650033273351E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -17144,7 +17110,7 @@
         <v>41364</v>
       </c>
       <c r="B41" s="9">
-        <v>0</v>
+        <v>2.8556000000000029E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -17152,7 +17118,7 @@
         <v>41394</v>
       </c>
       <c r="B42" s="9">
-        <v>-2.7763194225691179E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -17168,7 +17134,7 @@
         <v>41455</v>
       </c>
       <c r="B44" s="9">
-        <v>0</v>
+        <v>2.4504000000000081E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -17176,7 +17142,7 @@
         <v>41486</v>
       </c>
       <c r="B45" s="9">
-        <v>-2.391791540101362E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -17192,7 +17158,7 @@
         <v>41547</v>
       </c>
       <c r="B47" s="9">
-        <v>0</v>
+        <v>2.3247999999999939E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -17200,7 +17166,7 @@
         <v>41578</v>
       </c>
       <c r="B48" s="9">
-        <v>-2.271980986036615E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -17216,7 +17182,7 @@
         <v>41639</v>
       </c>
       <c r="B50" s="9">
-        <v>0</v>
+        <v>2.3457000000000061E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -17224,7 +17190,7 @@
         <v>41670</v>
       </c>
       <c r="B51" s="9">
-        <v>-2.2919380100971609E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -17240,7 +17206,7 @@
         <v>41729</v>
       </c>
       <c r="B53" s="9">
-        <v>0</v>
+        <v>3.1706000000000012E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -17248,7 +17214,7 @@
         <v>41759</v>
       </c>
       <c r="B54" s="9">
-        <v>-3.073162315620925E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -17264,7 +17230,7 @@
         <v>41820</v>
       </c>
       <c r="B56" s="9">
-        <v>0</v>
+        <v>3.065999999999991E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -17272,7 +17238,7 @@
         <v>41851</v>
       </c>
       <c r="B57" s="9">
-        <v>-2.9747928511827278E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -17288,7 +17254,7 @@
         <v>41912</v>
       </c>
       <c r="B59" s="9">
-        <v>0</v>
+        <v>2.4186999999999959E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -17296,7 +17262,7 @@
         <v>41943</v>
       </c>
       <c r="B60" s="9">
-        <v>-2.3615804535695121E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -17312,7 +17278,7 @@
         <v>42004</v>
       </c>
       <c r="B62" s="9">
-        <v>0</v>
+        <v>3.9921000000000102E-2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -17320,7 +17286,7 @@
         <v>42035</v>
       </c>
       <c r="B63" s="9">
-        <v>-3.8388492972062371E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -17336,7 +17302,7 @@
         <v>42094</v>
       </c>
       <c r="B65" s="9">
-        <v>0</v>
+        <v>3.2847999999999988E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -17344,7 +17310,7 @@
         <v>42124</v>
       </c>
       <c r="B66" s="9">
-        <v>-3.1803324400105248E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -17360,7 +17326,7 @@
         <v>42185</v>
       </c>
       <c r="B68" s="9">
-        <v>0</v>
+        <v>1.927799999999991E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -17368,7 +17334,7 @@
         <v>42216</v>
       </c>
       <c r="B69" s="9">
-        <v>-1.8913387711693819E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -17384,7 +17350,7 @@
         <v>42277</v>
       </c>
       <c r="B71" s="9">
-        <v>0</v>
+        <v>3.2205999999999957E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -17392,7 +17358,7 @@
         <v>42308</v>
       </c>
       <c r="B72" s="9">
-        <v>-3.1201136207307471E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -17408,7 +17374,7 @@
         <v>42369</v>
       </c>
       <c r="B74" s="9">
-        <v>0</v>
+        <v>3.4666000000000093E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -17416,7 +17382,7 @@
         <v>42400</v>
       </c>
       <c r="B75" s="9">
-        <v>-3.3504531897250001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -17432,7 +17398,7 @@
         <v>42460</v>
       </c>
       <c r="B77" s="9">
-        <v>0</v>
+        <v>2.5606000000000021E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -17440,7 +17406,7 @@
         <v>42490</v>
       </c>
       <c r="B78" s="9">
-        <v>-2.4966702612894239E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -17456,7 +17422,7 @@
         <v>42551</v>
       </c>
       <c r="B80" s="9">
-        <v>0</v>
+        <v>2.4764000000000012E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -17464,7 +17430,7 @@
         <v>42582</v>
       </c>
       <c r="B81" s="9">
-        <v>-2.4165563973753908E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -17480,7 +17446,7 @@
         <v>42643</v>
       </c>
       <c r="B83" s="9">
-        <v>0</v>
+        <v>1.5889000000000039E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -17488,7 +17454,7 @@
         <v>42674</v>
       </c>
       <c r="B84" s="9">
-        <v>-1.5640488281692289E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -17504,7 +17470,7 @@
         <v>42735</v>
       </c>
       <c r="B86" s="9">
-        <v>0</v>
+        <v>1.2250000000000091E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -17512,7 +17478,7 @@
         <v>42766</v>
       </c>
       <c r="B87" s="9">
-        <v>-1.210175351938758E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -17528,7 +17494,7 @@
         <v>42825</v>
       </c>
       <c r="B89" s="9">
-        <v>0</v>
+        <v>1.567600000000002E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -17536,7 +17502,7 @@
         <v>42855</v>
       </c>
       <c r="B90" s="9">
-        <v>-1.5434055742185589E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -17552,7 +17518,7 @@
         <v>42916</v>
       </c>
       <c r="B92" s="9">
-        <v>0</v>
+        <v>1.5883000000000091E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -17560,7 +17526,7 @@
         <v>42947</v>
       </c>
       <c r="B93" s="9">
-        <v>-1.563467446546507E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -17576,7 +17542,7 @@
         <v>43008</v>
       </c>
       <c r="B95" s="9">
-        <v>0</v>
+        <v>1.5724999999999989E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -17584,7 +17550,7 @@
         <v>43039</v>
       </c>
       <c r="B96" s="9">
-        <v>-1.548155258559158E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -17600,7 +17566,7 @@
         <v>43100</v>
       </c>
       <c r="B98" s="9">
-        <v>0</v>
+        <v>1.8482000000000109E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -17608,7 +17574,7 @@
         <v>43131</v>
       </c>
       <c r="B99" s="9">
-        <v>-1.8146614274970111E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -17624,7 +17590,7 @@
         <v>43190</v>
       </c>
       <c r="B101" s="9">
-        <v>0</v>
+        <v>8.1899999999999196E-3</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -17632,7 +17598,7 @@
         <v>43220</v>
       </c>
       <c r="B102" s="9">
-        <v>-8.1234687906048819E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -17648,7 +17614,7 @@
         <v>43281</v>
       </c>
       <c r="B104" s="9">
-        <v>0</v>
+        <v>2.4952000000000089E-2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -17656,7 +17622,7 @@
         <v>43312</v>
       </c>
       <c r="B105" s="9">
-        <v>-2.4344554671828719E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -17672,7 +17638,7 @@
         <v>43373</v>
       </c>
       <c r="B107" s="9">
-        <v>0</v>
+        <v>1.6912000000000042E-2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -17680,7 +17646,7 @@
         <v>43404</v>
       </c>
       <c r="B108" s="9">
-        <v>-1.6630740909734491E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -17696,7 +17662,7 @@
         <v>43465</v>
       </c>
       <c r="B110" s="9">
-        <v>0</v>
+        <v>5.1319999999999144E-3</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -17704,7 +17670,7 @@
         <v>43496</v>
       </c>
       <c r="B111" s="9">
-        <v>-5.1057970495417271E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -17720,7 +17686,7 @@
         <v>43555</v>
       </c>
       <c r="B113" s="9">
-        <v>0</v>
+        <v>2.9965000000000019E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -17728,7 +17694,7 @@
         <v>43585</v>
       </c>
       <c r="B114" s="9">
-        <v>-2.90932216143267E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -17744,7 +17710,7 @@
         <v>43646</v>
       </c>
       <c r="B116" s="9">
-        <v>0</v>
+        <v>1.308200000000004E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -17752,7 +17718,7 @@
         <v>43677</v>
       </c>
       <c r="B117" s="9">
-        <v>-1.291307120252849E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -17768,7 +17734,7 @@
         <v>43738</v>
       </c>
       <c r="B119" s="9">
-        <v>0</v>
+        <v>1.914400000000005E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -17776,7 +17742,7 @@
         <v>43769</v>
       </c>
       <c r="B120" s="9">
-        <v>-1.8784391607074239E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -17792,7 +17758,7 @@
         <v>43830</v>
       </c>
       <c r="B122" s="9">
-        <v>0</v>
+        <v>1.0550999999999981E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -17800,7 +17766,7 @@
         <v>43861</v>
       </c>
       <c r="B123" s="9">
-        <v>-1.0440838710762731E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -17816,7 +17782,7 @@
         <v>43921</v>
       </c>
       <c r="B125" s="9">
-        <v>0</v>
+        <v>-2.6375000000000148E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -17824,7 +17790,7 @@
         <v>43951</v>
       </c>
       <c r="B126" s="9">
-        <v>2.7089485171395641E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -17840,7 +17806,7 @@
         <v>44012</v>
       </c>
       <c r="B128" s="9">
-        <v>0</v>
+        <v>1.9180000000000861E-3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -17848,7 +17814,7 @@
         <v>44043</v>
       </c>
       <c r="B129" s="9">
-        <v>-1.91432831828553E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -17864,7 +17830,7 @@
         <v>44104</v>
       </c>
       <c r="B131" s="9">
-        <v>0</v>
+        <v>6.4789999999999024E-3</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -17872,7 +17838,7 @@
         <v>44135</v>
       </c>
       <c r="B132" s="9">
-        <v>-6.4372927800776516E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -17888,7 +17854,7 @@
         <v>44196</v>
       </c>
       <c r="B134" s="9">
-        <v>0</v>
+        <v>2.1927999999999951E-2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -17896,7 +17862,7 @@
         <v>44227</v>
       </c>
       <c r="B135" s="9">
-        <v>-2.145748037043704E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -17912,7 +17878,7 @@
         <v>44286</v>
       </c>
       <c r="B137" s="9">
-        <v>0</v>
+        <v>2.4550999999999989E-2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -17920,7 +17886,7 @@
         <v>44316</v>
       </c>
       <c r="B138" s="9">
-        <v>-2.3962691949937161E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -17936,7 +17902,7 @@
         <v>44377</v>
       </c>
       <c r="B140" s="9">
-        <v>0</v>
+        <v>4.9452999999999969E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17950,12 +17916,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA253"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y2" sqref="Y2:Y142"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30554,12 +30520,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC165"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2:AA131"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42350,12 +42316,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC120"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA5" sqref="AA5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53065,12 +53031,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D1979-7AEF-462F-964F-DCFF3E7BE9C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59450,7 +59416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9B809E-EC0D-4D30-B0D9-C00C02C03F34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59601,7 +59567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7CF7E0-E53B-461E-87C8-E956EB54FB69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE165"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
@@ -73619,16 +73585,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3813BF6-BB22-4177-8605-1973D66ED117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F239"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -78422,11 +78393,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767E7666-32EE-4026-B2B1-DAE615EF58B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
